--- a/assets_files/testing_dwh.xlsx
+++ b/assets_files/testing_dwh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192268334fe15c57/Desktop/DEV-modeling/assets_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192268334fe15c57/Documents/Andreas/dimensional-data-modeling/assets_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{48A64FC6-8AD0-4A97-8F38-A7FEF4330C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D993845-839A-4833-8E6D-1279ECAA353A}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="8_{48A64FC6-8AD0-4A97-8F38-A7FEF4330C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E7C272-4630-4F50-B9D9-F84E4D067989}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4E651D47-8338-4265-9E90-B29977DF6A5D}"/>
+    <workbookView minimized="1" xWindow="9984" yWindow="792" windowWidth="7500" windowHeight="11448" activeTab="3" xr2:uid="{4E651D47-8338-4265-9E90-B29977DF6A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0,1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>customer_id</t>
   </si>
@@ -193,7 +193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -325,7 +331,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,7 +1345,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1515,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967CF00C-1757-4287-9688-0D9B2AB21812}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1967,7 @@
         <v>43251</v>
       </c>
       <c r="D2" s="11">
-        <v>45302</v>
+        <v>45333</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1969,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>50</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1980,7 +1987,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="11">
-        <v>45302</v>
+        <v>45333</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="3">
@@ -1990,7 +1997,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="3">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2023,96 +2030,83 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>45302</v>
+        <v>45333</v>
       </c>
       <c r="D7" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45333</v>
+      </c>
+      <c r="D11" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E11" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>45302</v>
-      </c>
-      <c r="D8" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>45302</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
-        <v>45302</v>
-      </c>
-      <c r="D16" s="3">
-        <v>67</v>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45333</v>
+      </c>
+      <c r="D15" s="3">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
